--- a/DAY1/Book1.xlsx
+++ b/DAY1/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\new\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing exercises excel\testing portal ex\DAY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F583B2C-FB27-4A1E-82DA-A68EF2B5C908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1F42F2-B52D-4641-B3D0-905838BAF331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84FAE918-2041-478D-A320-6CFD21C72BA0}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="11910" windowHeight="7875" xr2:uid="{84FAE918-2041-478D-A320-6CFD21C72BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>26.05.23</t>
   </si>
   <si>
-    <t>Adhithya A</t>
-  </si>
-  <si>
     <t>1.Launch the browser
 2.open the url:https://studenthostel.neohire.io/
 3.click on the admin login button
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>----------------</t>
+  </si>
+  <si>
+    <t>Pratheesh M</t>
   </si>
 </sst>
 </file>
@@ -532,21 +532,21 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -574,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -585,10 +585,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -596,145 +596,145 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
